--- a/KPCA.xlsx
+++ b/KPCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1949e38af005e536/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{F77B86FA-39B4-47FC-9B26-675A8633D73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACA9E2B7-4851-44A5-977F-94668DB0E1DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CB5F34-029D-0245-8348-6C447512EB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="5280" windowWidth="27000" windowHeight="17260" xr2:uid="{6FE908C7-950A-460B-9E20-D84846436C53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{6FE908C7-950A-460B-9E20-D84846436C53}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +88,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -99,10 +107,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5FF2E5-631C-4BFE-BCDC-1DDA56FA7E04}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,319 +442,418 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0.1</v>
       </c>
-      <c r="B2" s="1">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0.1</v>
       </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0.1</v>
       </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0.1</v>
       </c>
-      <c r="B7" s="1">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>200</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0.1</v>
       </c>
-      <c r="B9" s="1">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>200</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>200</v>
-      </c>
-      <c r="B11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="B19" s="2">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="B20" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>79.8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>119.7</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>119.7</v>
+      </c>
+      <c r="B24" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>119.7</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>119.7</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>119.7</v>
+      </c>
+      <c r="B27" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>300</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>300</v>
-      </c>
-      <c r="B13" s="1">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>300</v>
-      </c>
-      <c r="B14" s="1">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>400</v>
-      </c>
-      <c r="B15" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>400</v>
-      </c>
-      <c r="B16" s="1">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>400</v>
-      </c>
-      <c r="B17" s="1">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>400</v>
-      </c>
-      <c r="B18" s="1">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>400</v>
-      </c>
-      <c r="B19" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>400</v>
-      </c>
-      <c r="B20" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>400</v>
-      </c>
-      <c r="B21" s="1">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>159.6</v>
+      </c>
+      <c r="B28" s="2">
+        <v>17.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>159.6</v>
+      </c>
+      <c r="B29" s="2">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>159.6</v>
+      </c>
+      <c r="B30" s="2">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>159.6</v>
+      </c>
+      <c r="B31" s="2">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>159.6</v>
+      </c>
+      <c r="B32" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>500</v>
-      </c>
-      <c r="B22" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>500</v>
-      </c>
-      <c r="B23" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>500</v>
-      </c>
-      <c r="B24" s="1">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>600</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>600</v>
-      </c>
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>600</v>
-      </c>
-      <c r="B27" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>600</v>
-      </c>
-      <c r="B28" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>600</v>
-      </c>
-      <c r="B29" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>600</v>
-      </c>
-      <c r="B30" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>600</v>
-      </c>
-      <c r="B31" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>800</v>
-      </c>
-      <c r="B32" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>800</v>
-      </c>
-      <c r="B33" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B34" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>159.6</v>
+      </c>
+      <c r="B33" s="2">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>159.6</v>
+      </c>
+      <c r="B34" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B38" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B40" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>199.5</v>
+      </c>
+      <c r="B42" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B43" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B44" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B45" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B46" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B47" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B48" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B49" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>319.2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>319.2</v>
+      </c>
+      <c r="B51" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>319.2</v>
+      </c>
+      <c r="B52" s="2">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B52">
+    <sortCondition ref="A1:A52"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>